--- a/s2cDNASample/s2CDNASample_J.PLAGGENBERG_09.03.19.xlsx
+++ b/s2cDNASample/s2CDNASample_J.PLAGGENBERG_09.03.19.xlsx
@@ -52,7 +52,7 @@
     <t xml:space="preserve">J.PLAGGENBERG</t>
   </si>
   <si>
-    <t xml:space="preserve">E7420</t>
+    <t xml:space="preserve">E7420L</t>
   </si>
 </sst>
 </file>
@@ -183,8 +183,8 @@
   </sheetPr>
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -240,7 +240,8 @@
       <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="6" t="b">
+      <c r="H2" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -266,7 +267,8 @@
       <c r="G3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="6" t="b">
+      <c r="H3" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -292,7 +294,8 @@
       <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="6" t="b">
+      <c r="H4" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -318,7 +321,8 @@
       <c r="G5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="6" t="b">
+      <c r="H5" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -344,7 +348,8 @@
       <c r="G6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="6" t="b">
+      <c r="H6" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -370,7 +375,8 @@
       <c r="G7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="6" t="b">
+      <c r="H7" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -396,7 +402,8 @@
       <c r="G8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="6" t="b">
+      <c r="H8" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -422,7 +429,8 @@
       <c r="G9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="6" t="b">
+      <c r="H9" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -448,7 +456,8 @@
       <c r="G10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="6" t="b">
+      <c r="H10" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -474,7 +483,8 @@
       <c r="G11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="6" t="b">
+      <c r="H11" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -500,7 +510,8 @@
       <c r="G12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="6" t="b">
+      <c r="H12" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -526,7 +537,8 @@
       <c r="G13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="6" t="b">
+      <c r="H13" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -552,7 +564,8 @@
       <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="6" t="b">
+      <c r="H14" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -578,7 +591,8 @@
       <c r="G15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="6" t="b">
+      <c r="H15" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -604,7 +618,8 @@
       <c r="G16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="6" t="b">
+      <c r="H16" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -630,7 +645,8 @@
       <c r="G17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="6" t="b">
+      <c r="H17" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -656,7 +672,8 @@
       <c r="G18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="6" t="b">
+      <c r="H18" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -682,7 +699,8 @@
       <c r="G19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="6" t="b">
+      <c r="H19" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -708,7 +726,8 @@
       <c r="G20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H20" s="6" t="b">
+      <c r="H20" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -734,7 +753,8 @@
       <c r="G21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="6" t="b">
+      <c r="H21" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -760,7 +780,8 @@
       <c r="G22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="6" t="b">
+      <c r="H22" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -786,7 +807,8 @@
       <c r="G23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H23" s="6" t="b">
+      <c r="H23" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -812,7 +834,8 @@
       <c r="G24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H24" s="6" t="b">
+      <c r="H24" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -838,7 +861,8 @@
       <c r="G25" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="6" t="b">
+      <c r="H25" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -864,7 +888,8 @@
       <c r="G26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H26" s="6" t="b">
+      <c r="H26" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -890,7 +915,8 @@
       <c r="G27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H27" s="6" t="b">
+      <c r="H27" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -916,7 +942,8 @@
       <c r="G28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H28" s="6" t="b">
+      <c r="H28" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -942,7 +969,8 @@
       <c r="G29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="6" t="b">
+      <c r="H29" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -968,7 +996,8 @@
       <c r="G30" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H30" s="6" t="b">
+      <c r="H30" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -994,7 +1023,8 @@
       <c r="G31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H31" s="6" t="b">
+      <c r="H31" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1020,7 +1050,8 @@
       <c r="G32" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H32" s="6" t="b">
+      <c r="H32" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1046,7 +1077,8 @@
       <c r="G33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H33" s="6" t="b">
+      <c r="H33" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
